--- a/pythonProject/datas/apicase.xlsx
+++ b/pythonProject/datas/apicase.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="add" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="audit" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="invest" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -44,7 +47,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -58,9 +61,30 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -68,14 +92,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -97,30 +113,16 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -135,8 +137,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,24 +152,25 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -195,13 +198,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,31 +246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +264,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,43 +300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,13 +324,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,49 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +418,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -426,15 +438,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,8 +475,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,7 +485,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,10 +521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -530,133 +533,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,10 +1057,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1109,6 +1112,11 @@
           <t>result</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1149,6 +1157,11 @@
           <t>成功</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SELECT * FROM futureloan.member WHERE mobile_phone = "{}"</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1187,6 +1200,11 @@
       <c r="H3" t="inlineStr">
         <is>
           <t>成功</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT * FROM futureloan.member WHERE mobile_phone = "{}"</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1627,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1688,7 +1706,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{"mobile_phone":"13388285002","pwd":"lemonban"}</t>
+          <t>{"mobile_phone":"#mobile_phone#","pwd":"#pwd#"}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1875,8 +1893,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2135,7 +2153,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{"code":2,"msg":"余额必须为数值型"}</t>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2255,7 +2273,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{"code":2,"msg":"余额必须为数值型"}</t>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2315,10 +2333,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2371,6 +2389,11 @@
           <t>result</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2411,6 +2434,9 @@
           <t>成功</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2727,6 +2753,1157 @@
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="19.875" customWidth="1" min="3" max="3"/>
+    <col width="118.25" customWidth="1" min="6" max="6"/>
+    <col width="42.75" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>加标成功</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"title":"老王给你们面子借钱给你","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>加标失败-用户id为空</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"title":"老王给你们面子借钱给你","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"用户id为空"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>加标失败-标题为空</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"标题为空"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>加标失败-借款金额为空</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"title":"老王给你们面子借钱给你","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"借款金额为空"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>加标失败-利率为空</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"title":"老王给你们面子借钱给你","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"利率为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>加标失败-借款期限为空</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"title":"老王给你们面子借钱给你","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"借款期限为空"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>加标失败-借款日期类型为空</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"title":"老王给你们面子借钱给你","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"借款日期类型为空"}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>加标失败-竞标期限为空</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"title":"老王给你们面子借钱给你","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"竞标期限为空"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>加标失败-用户id错误</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#+1,"title":"老王给你们面子借钱给你","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>加标失败-用户id为空</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"title":"老王给你们面子借钱给你","amount":5000000000000000000000000000000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"借款金额范围错误"}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>加标失败-用户id为空</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"title":"老王给你们面子借钱给你","amount":1.22222,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":6}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"借款金额范围错误"}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <cols>
+    <col width="20.125" customWidth="1" min="3" max="3"/>
+    <col width="10.625" customWidth="1" min="5" max="5"/>
+    <col width="49.125" customWidth="1" min="6" max="6"/>
+    <col width="36.25" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>审核通过</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not":True}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK","status":2}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SELECT `status` FROM futureloan.loan where id ={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>审核拒绝</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not":False}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK","status":5}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT `status` FROM futureloan.loan where id ={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>重复审核</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"loan_id":#pass_loan_id#,"approved_or_not":False}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"项目不在审核中状态"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>项目不存在</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#+100,"approved_or_not":False}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"项目不存在"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>项目id为空</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"approved_or_not":False}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"项目id为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>approved_or_not为空</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"approved_or_not为空"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <cols>
+    <col width="21.25" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="61" customWidth="1" min="6" max="6"/>
+    <col width="54.5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>投资成功</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":1000}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>充值金额大于投标金额</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":10000}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"该标可投金额不足,可投金额"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>投标金额小于100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":10}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"充值金额必须大于100，并且可以被100整除"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>会员id为空</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"amount":100}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"会员id为空"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>投资金额为空</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"loan_id":#loan_id#}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"余额为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>标id为空</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"amount":1000}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"项目id为空"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
